--- a/public/logbook.xlsx
+++ b/public/logbook.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zxblkm-my.sharepoint.com/personal/ehs_mpsbrondong_officeku_id/Documents/K3 Lingker/B3/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hris\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{47B6DD81-1B1F-446C-9D30-2618406F7CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CBD7BE0-A853-415C-AB71-2CF0AA7D3477}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D11F99-1F93-4C6D-9619-9C42DA480B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hitungan" sheetId="12" state="hidden" r:id="rId1"/>
-    <sheet name="RAW ALL" sheetId="11" r:id="rId2"/>
-    <sheet name="PRINT" sheetId="10" r:id="rId3"/>
+    <sheet name="PRINT" sheetId="10" r:id="rId2"/>
+    <sheet name="RAW ALL" sheetId="11" r:id="rId3"/>
     <sheet name="REF" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -1121,9 +1121,78 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1141,75 +1210,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1564,16 +1564,16 @@
       <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1786,214 +1786,965 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:M48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="2:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="B3" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+    </row>
+    <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="B4" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90"/>
+    </row>
+    <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="80"/>
+    </row>
+    <row r="10" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="70"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="81"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="37"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="37"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="37"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="37"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="37"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="37"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="37"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="15"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="37"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="37"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="37"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="37"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="37"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="37"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="15"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="37"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="15"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="37"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="37"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="37"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="37"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="15"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="37"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="92"/>
+      <c r="F47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="92"/>
+      <c r="F48" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
+  <pageMargins left="0.34" right="0.19685039370078741" top="0.28999999999999998" bottom="0.12" header="0.18" footer="0.12"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:Q189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="17" width="10.42578125" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="11.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="3"/>
+    <col min="16" max="17" width="10.44140625" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+    <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-    </row>
-    <row r="3" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+    </row>
+    <row r="3" spans="2:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="B3" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-    </row>
-    <row r="4" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+    </row>
+    <row r="4" spans="2:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="B4" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="67"/>
-    </row>
-    <row r="5" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+    </row>
+    <row r="5" spans="2:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="68" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="1"/>
       <c r="E7" s="22">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="79" t="s">
+    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="78"/>
       <c r="N8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="85" t="s">
+      <c r="O8" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="62" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72" t="s">
+    <row r="9" spans="2:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="67" t="s">
         <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="90" t="s">
+      <c r="N9" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="86"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-    </row>
-    <row r="10" spans="2:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+    </row>
+    <row r="10" spans="2:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
       <c r="I10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-    </row>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="70"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>56</v>
       </c>
@@ -2039,7 +2790,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -2057,7 +2808,7 @@
       <c r="P12" s="50"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15">
         <v>1</v>
       </c>
@@ -2097,7 +2848,7 @@
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="15">
         <v>2</v>
       </c>
@@ -2138,7 +2889,7 @@
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="15">
         <v>3</v>
       </c>
@@ -2179,7 +2930,7 @@
       <c r="P15" s="51"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="15">
         <v>4</v>
       </c>
@@ -2220,7 +2971,7 @@
       <c r="P16" s="51"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="15">
         <v>5</v>
       </c>
@@ -2261,7 +3012,7 @@
       <c r="P17" s="51"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="15">
         <v>6</v>
       </c>
@@ -2302,7 +3053,7 @@
       <c r="P18" s="51"/>
       <c r="Q18" s="51"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="15">
         <v>7</v>
       </c>
@@ -2343,7 +3094,7 @@
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="15">
         <v>8</v>
       </c>
@@ -2384,7 +3135,7 @@
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
         <v>9</v>
       </c>
@@ -2425,7 +3176,7 @@
       <c r="P21" s="51"/>
       <c r="Q21" s="51"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="15">
         <v>10</v>
       </c>
@@ -2466,7 +3217,7 @@
       <c r="P22" s="51"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>11</v>
       </c>
@@ -2507,7 +3258,7 @@
       <c r="P23" s="51"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="15">
         <v>12</v>
       </c>
@@ -2548,7 +3299,7 @@
       <c r="P24" s="52"/>
       <c r="Q24" s="54"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="15">
         <v>13</v>
       </c>
@@ -2589,7 +3340,7 @@
       <c r="P25" s="52"/>
       <c r="Q25" s="54"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="15">
         <v>14</v>
       </c>
@@ -2630,7 +3381,7 @@
       <c r="P26" s="52"/>
       <c r="Q26" s="54"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="15">
         <v>15</v>
       </c>
@@ -2681,7 +3432,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="15">
         <v>16</v>
       </c>
@@ -2722,7 +3473,7 @@
       <c r="P28" s="51"/>
       <c r="Q28" s="54"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
         <v>17</v>
       </c>
@@ -2763,7 +3514,7 @@
       <c r="P29" s="51"/>
       <c r="Q29" s="54"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="15">
         <v>18</v>
       </c>
@@ -2804,7 +3555,7 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="54"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="15">
         <v>19</v>
       </c>
@@ -2845,7 +3596,7 @@
       <c r="P31" s="51"/>
       <c r="Q31" s="54"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="15">
         <v>20</v>
       </c>
@@ -2886,7 +3637,7 @@
       <c r="P32" s="51"/>
       <c r="Q32" s="54"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B33" s="15">
         <v>21</v>
       </c>
@@ -2927,7 +3678,7 @@
       <c r="P33" s="52"/>
       <c r="Q33" s="54"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B34" s="15">
         <v>22</v>
       </c>
@@ -2968,7 +3719,7 @@
       <c r="P34" s="52"/>
       <c r="Q34" s="54"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B35" s="15">
         <v>23</v>
       </c>
@@ -3009,7 +3760,7 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="54"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B36" s="15">
         <v>24</v>
       </c>
@@ -3050,7 +3801,7 @@
       <c r="P36" s="52"/>
       <c r="Q36" s="54"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B37" s="15">
         <v>25</v>
       </c>
@@ -3091,7 +3842,7 @@
       <c r="P37" s="52"/>
       <c r="Q37" s="54"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B38" s="15">
         <v>26</v>
       </c>
@@ -3132,7 +3883,7 @@
       <c r="P38" s="52"/>
       <c r="Q38" s="54"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B39" s="15">
         <v>27</v>
       </c>
@@ -3173,7 +3924,7 @@
       <c r="P39" s="52"/>
       <c r="Q39" s="54"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" s="15">
         <v>28</v>
       </c>
@@ -3214,7 +3965,7 @@
       <c r="P40" s="52"/>
       <c r="Q40" s="54"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B41" s="15">
         <v>29</v>
       </c>
@@ -3255,7 +4006,7 @@
       <c r="P41" s="52"/>
       <c r="Q41" s="54"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" s="15">
         <v>30</v>
       </c>
@@ -3296,7 +4047,7 @@
       <c r="P42" s="51"/>
       <c r="Q42" s="54"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" s="15">
         <v>31</v>
       </c>
@@ -3337,7 +4088,7 @@
       <c r="P43" s="51"/>
       <c r="Q43" s="54"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" s="15">
         <v>32</v>
       </c>
@@ -3388,7 +4139,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B45" s="15">
         <v>33</v>
       </c>
@@ -3429,7 +4180,7 @@
       <c r="P45" s="52"/>
       <c r="Q45" s="54"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B46" s="15">
         <v>34</v>
       </c>
@@ -3470,7 +4221,7 @@
       <c r="P46" s="52"/>
       <c r="Q46" s="54"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B47" s="15">
         <v>35</v>
       </c>
@@ -3511,7 +4262,7 @@
       <c r="P47" s="52"/>
       <c r="Q47" s="54"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" s="15">
         <v>36</v>
       </c>
@@ -3552,7 +4303,7 @@
       <c r="P48" s="52"/>
       <c r="Q48" s="54"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B49" s="15">
         <v>37</v>
       </c>
@@ -3593,7 +4344,7 @@
       <c r="P49" s="52"/>
       <c r="Q49" s="54"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B50" s="15">
         <v>38</v>
       </c>
@@ -3634,7 +4385,7 @@
       <c r="P50" s="52"/>
       <c r="Q50" s="54"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B51" s="15">
         <v>39</v>
       </c>
@@ -3675,7 +4426,7 @@
       <c r="P51" s="52"/>
       <c r="Q51" s="54"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B52" s="15">
         <v>40</v>
       </c>
@@ -3720,7 +4471,7 @@
       <c r="P52" s="51"/>
       <c r="Q52" s="54"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B53" s="15">
         <v>41</v>
       </c>
@@ -3761,7 +4512,7 @@
       <c r="P53" s="51"/>
       <c r="Q53" s="54"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B54" s="15">
         <v>42</v>
       </c>
@@ -3802,7 +4553,7 @@
       <c r="P54" s="51"/>
       <c r="Q54" s="54"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B55" s="15">
         <v>43</v>
       </c>
@@ -3843,7 +4594,7 @@
       <c r="P55" s="51"/>
       <c r="Q55" s="54"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B56" s="15">
         <v>44</v>
       </c>
@@ -3888,7 +4639,7 @@
       <c r="P56" s="51"/>
       <c r="Q56" s="54"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B57" s="15"/>
       <c r="C57" s="16" t="str">
         <f>IFERROR(VLOOKUP(D57,REF!$B$2:$C$8,2,0),"")</f>
@@ -3927,7 +4678,7 @@
       <c r="P57" s="51"/>
       <c r="Q57" s="54"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B58" s="15"/>
       <c r="C58" s="16" t="str">
         <f>IFERROR(VLOOKUP(D58,REF!$B$2:$C$8,2,0),"")</f>
@@ -3966,7 +4717,7 @@
       <c r="P58" s="51"/>
       <c r="Q58" s="54"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B59" s="15"/>
       <c r="C59" s="16" t="str">
         <f>IFERROR(VLOOKUP(D59,REF!$B$2:$C$8,2,0),"")</f>
@@ -4011,7 +4762,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="17"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -4029,15 +4780,15 @@
       <c r="P60" s="53"/>
       <c r="Q60" s="61"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N61" s="1"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E63" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E64" s="60" t="s">
         <v>71</v>
       </c>
@@ -4046,7 +4797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="3" t="s">
         <v>72</v>
       </c>
@@ -4055,7 +4806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E66" s="3" t="s">
         <v>73</v>
       </c>
@@ -4064,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E67" s="3" t="s">
         <v>74</v>
       </c>
@@ -4073,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E68" s="3" t="s">
         <v>75</v>
       </c>
@@ -4082,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E69" s="3" t="s">
         <v>76</v>
       </c>
@@ -4091,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E70" s="3" t="s">
         <v>77</v>
       </c>
@@ -4100,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E71" s="60" t="s">
         <v>78</v>
       </c>
@@ -4109,7 +4860,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E72" s="3" t="s">
         <v>72</v>
       </c>
@@ -4118,7 +4869,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E73" s="3" t="s">
         <v>73</v>
       </c>
@@ -4127,7 +4878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E74" s="3" t="s">
         <v>74</v>
       </c>
@@ -4136,7 +4887,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E75" s="3" t="s">
         <v>75</v>
       </c>
@@ -4145,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E76" s="3" t="s">
         <v>76</v>
       </c>
@@ -4154,7 +4905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E77" s="3" t="s">
         <v>77</v>
       </c>
@@ -4163,7 +4914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E78" s="60" t="s">
         <v>79</v>
       </c>
@@ -4172,7 +4923,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E79" s="3" t="s">
         <v>72</v>
       </c>
@@ -4181,7 +4932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E80" s="3" t="s">
         <v>73</v>
       </c>
@@ -4190,7 +4941,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E81" s="3" t="s">
         <v>74</v>
       </c>
@@ -4199,7 +4950,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E82" s="3" t="s">
         <v>75</v>
       </c>
@@ -4208,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E83" s="3" t="s">
         <v>76</v>
       </c>
@@ -4217,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E84" s="3" t="s">
         <v>77</v>
       </c>
@@ -4226,7 +4977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E85" s="60" t="s">
         <v>80</v>
       </c>
@@ -4235,7 +4986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E86" s="3" t="s">
         <v>72</v>
       </c>
@@ -4244,7 +4995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E87" s="3" t="s">
         <v>73</v>
       </c>
@@ -4253,7 +5004,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E88" s="3" t="s">
         <v>74</v>
       </c>
@@ -4262,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E89" s="3" t="s">
         <v>75</v>
       </c>
@@ -4271,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E90" s="3" t="s">
         <v>76</v>
       </c>
@@ -4280,7 +5031,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E91" s="3" t="s">
         <v>77</v>
       </c>
@@ -4289,7 +5040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E92" s="60" t="s">
         <v>81</v>
       </c>
@@ -4298,7 +5049,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E93" s="3" t="s">
         <v>72</v>
       </c>
@@ -4307,7 +5058,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E94" s="3" t="s">
         <v>73</v>
       </c>
@@ -4316,7 +5067,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E95" s="3" t="s">
         <v>74</v>
       </c>
@@ -4325,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E96" s="3" t="s">
         <v>75</v>
       </c>
@@ -4334,7 +5085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E97" s="3" t="s">
         <v>76</v>
       </c>
@@ -4343,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E98" s="3" t="s">
         <v>77</v>
       </c>
@@ -4352,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E99" s="60" t="s">
         <v>82</v>
       </c>
@@ -4361,7 +5112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E100" s="3" t="s">
         <v>72</v>
       </c>
@@ -4370,7 +5121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E101" s="3" t="s">
         <v>73</v>
       </c>
@@ -4379,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E102" s="3" t="s">
         <v>74</v>
       </c>
@@ -4388,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E103" s="3" t="s">
         <v>75</v>
       </c>
@@ -4397,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E104" s="3" t="s">
         <v>76</v>
       </c>
@@ -4406,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E105" s="3" t="s">
         <v>77</v>
       </c>
@@ -4415,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E106" s="60" t="s">
         <v>83</v>
       </c>
@@ -4424,7 +5175,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E107" s="3" t="s">
         <v>72</v>
       </c>
@@ -4433,7 +5184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E108" s="3" t="s">
         <v>73</v>
       </c>
@@ -4442,7 +5193,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="109" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E109" s="3" t="s">
         <v>74</v>
       </c>
@@ -4451,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E110" s="3" t="s">
         <v>75</v>
       </c>
@@ -4460,7 +5211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E111" s="3" t="s">
         <v>76</v>
       </c>
@@ -4469,7 +5220,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E112" s="3" t="s">
         <v>77</v>
       </c>
@@ -4478,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E113" s="60" t="s">
         <v>84</v>
       </c>
@@ -4487,7 +5238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E114" s="3" t="s">
         <v>72</v>
       </c>
@@ -4496,7 +5247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E115" s="3" t="s">
         <v>73</v>
       </c>
@@ -4505,7 +5256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E116" s="3" t="s">
         <v>74</v>
       </c>
@@ -4514,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E117" s="3" t="s">
         <v>75</v>
       </c>
@@ -4523,7 +5274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E118" s="3" t="s">
         <v>76</v>
       </c>
@@ -4532,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E119" s="3" t="s">
         <v>77</v>
       </c>
@@ -4541,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E120" s="60" t="s">
         <v>85</v>
       </c>
@@ -4550,7 +5301,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E121" s="3" t="s">
         <v>72</v>
       </c>
@@ -4559,7 +5310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E122" s="3" t="s">
         <v>73</v>
       </c>
@@ -4568,7 +5319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E123" s="3" t="s">
         <v>74</v>
       </c>
@@ -4577,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E124" s="3" t="s">
         <v>75</v>
       </c>
@@ -4586,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E125" s="3" t="s">
         <v>112</v>
       </c>
@@ -4595,7 +5346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E126" s="3" t="s">
         <v>77</v>
       </c>
@@ -4604,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E127" s="60" t="s">
         <v>86</v>
       </c>
@@ -4613,7 +5364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E128" s="3" t="s">
         <v>72</v>
       </c>
@@ -4622,7 +5373,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E129" s="3" t="s">
         <v>73</v>
       </c>
@@ -4631,7 +5382,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E130" s="3" t="s">
         <v>74</v>
       </c>
@@ -4640,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E131" s="3" t="s">
         <v>75</v>
       </c>
@@ -4649,7 +5400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E132" s="3" t="s">
         <v>76</v>
       </c>
@@ -4658,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E133" s="3" t="s">
         <v>77</v>
       </c>
@@ -4667,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E134" s="60" t="s">
         <v>87</v>
       </c>
@@ -4676,7 +5427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E135" s="3" t="s">
         <v>72</v>
       </c>
@@ -4685,7 +5436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E136" s="3" t="s">
         <v>73</v>
       </c>
@@ -4694,7 +5445,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E137" s="3" t="s">
         <v>74</v>
       </c>
@@ -4703,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E138" s="3" t="s">
         <v>75</v>
       </c>
@@ -4712,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E139" s="3" t="s">
         <v>76</v>
       </c>
@@ -4721,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E140" s="3" t="s">
         <v>77</v>
       </c>
@@ -4730,7 +5481,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E141" s="60" t="s">
         <v>88</v>
       </c>
@@ -4739,7 +5490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E142" s="3" t="s">
         <v>72</v>
       </c>
@@ -4748,7 +5499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E143" s="3" t="s">
         <v>73</v>
       </c>
@@ -4757,7 +5508,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E144" s="3" t="s">
         <v>74</v>
       </c>
@@ -4766,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E145" s="3" t="s">
         <v>75</v>
       </c>
@@ -4775,7 +5526,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E146" s="3" t="s">
         <v>76</v>
       </c>
@@ -4784,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E147" s="3" t="s">
         <v>77</v>
       </c>
@@ -4793,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E148" s="60" t="s">
         <v>89</v>
       </c>
@@ -4802,7 +5553,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E149" s="3" t="s">
         <v>72</v>
       </c>
@@ -4811,7 +5562,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E150" s="3" t="s">
         <v>73</v>
       </c>
@@ -4820,7 +5571,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E151" s="3" t="s">
         <v>74</v>
       </c>
@@ -4829,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E152" s="3" t="s">
         <v>75</v>
       </c>
@@ -4838,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E153" s="3" t="s">
         <v>76</v>
       </c>
@@ -4847,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E154" s="3" t="s">
         <v>77</v>
       </c>
@@ -4856,7 +5607,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E155" s="60" t="s">
         <v>90</v>
       </c>
@@ -4865,7 +5616,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E156" s="3" t="s">
         <v>72</v>
       </c>
@@ -4874,7 +5625,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E157" s="3" t="s">
         <v>73</v>
       </c>
@@ -4883,7 +5634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E158" s="3" t="s">
         <v>74</v>
       </c>
@@ -4892,7 +5643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E159" s="3" t="s">
         <v>75</v>
       </c>
@@ -4901,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E160" s="3" t="s">
         <v>91</v>
       </c>
@@ -4910,7 +5661,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E161" s="3" t="s">
         <v>92</v>
       </c>
@@ -4919,7 +5670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E162" s="60" t="s">
         <v>93</v>
       </c>
@@ -4928,7 +5679,7 @@
         <v>131.1</v>
       </c>
     </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E163" s="3" t="s">
         <v>72</v>
       </c>
@@ -4937,7 +5688,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E164" s="3" t="s">
         <v>73</v>
       </c>
@@ -4946,7 +5697,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E165" s="3" t="s">
         <v>74</v>
       </c>
@@ -4955,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E166" s="3" t="s">
         <v>75</v>
       </c>
@@ -4964,7 +5715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E167" s="3" t="s">
         <v>91</v>
       </c>
@@ -4973,7 +5724,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E168" s="3" t="s">
         <v>92</v>
       </c>
@@ -4982,7 +5733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E169" s="60" t="s">
         <v>94</v>
       </c>
@@ -4991,7 +5742,7 @@
         <v>116.5</v>
       </c>
     </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E170" s="3" t="s">
         <v>72</v>
       </c>
@@ -5000,7 +5751,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E171" s="3" t="s">
         <v>73</v>
       </c>
@@ -5009,7 +5760,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E172" s="3" t="s">
         <v>74</v>
       </c>
@@ -5018,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E173" s="3" t="s">
         <v>75</v>
       </c>
@@ -5027,7 +5778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E174" s="3" t="s">
         <v>91</v>
       </c>
@@ -5036,7 +5787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E175" s="3" t="s">
         <v>92</v>
       </c>
@@ -5045,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E176" s="60" t="s">
         <v>95</v>
       </c>
@@ -5054,7 +5805,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E177" s="3" t="s">
         <v>72</v>
       </c>
@@ -5063,7 +5814,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E178" s="3" t="s">
         <v>73</v>
       </c>
@@ -5072,7 +5823,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E179" s="3" t="s">
         <v>74</v>
       </c>
@@ -5081,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E180" s="3" t="s">
         <v>75</v>
       </c>
@@ -5090,7 +5841,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E181" s="3" t="s">
         <v>91</v>
       </c>
@@ -5099,7 +5850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E182" s="3" t="s">
         <v>92</v>
       </c>
@@ -5108,7 +5859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E183" s="60" t="s">
         <v>96</v>
       </c>
@@ -5117,7 +5868,7 @@
         <v>515.1</v>
       </c>
     </row>
-    <row r="184" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E184" s="3" t="s">
         <v>72</v>
       </c>
@@ -5126,7 +5877,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="185" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E185" s="3" t="s">
         <v>73</v>
       </c>
@@ -5135,7 +5886,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="186" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E186" s="3" t="s">
         <v>74</v>
       </c>
@@ -5144,7 +5895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E187" s="3" t="s">
         <v>75</v>
       </c>
@@ -5153,7 +5904,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="188" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E188" s="3" t="s">
         <v>91</v>
       </c>
@@ -5162,7 +5913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E189" s="3" t="s">
         <v>92</v>
       </c>
@@ -5173,6 +5924,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="P8:P10"/>
     <mergeCell ref="Q8:Q10"/>
     <mergeCell ref="B9:B10"/>
@@ -5189,766 +5946,9 @@
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:M48"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-    </row>
-    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-    </row>
-    <row r="4" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="67"/>
-    </row>
-    <row r="5" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="22">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="85" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="86"/>
-    </row>
-    <row r="10" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="87"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="37"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="37"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="37"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="37"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="37"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="37"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="37"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="37"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="37"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="37"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="37"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="37"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="37"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="37"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="37"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="37"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="37"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="37"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="92"/>
-      <c r="F47" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-  </mergeCells>
-  <pageMargins left="0.34" right="0.19685039370078741" top="0.28999999999999998" bottom="0.12" header="0.18" footer="0.12"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5960,13 +5960,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>104</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
